--- a/data-model/sdr-release-v2.0.1/ddf-sdr-usdm-conformance-rules-V2.0.xlsx
+++ b/data-model/sdr-release-v2.0.1/ddf-sdr-usdm-conformance-rules-V2.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viswesh.mb\source\repos\Sprint 29\data-model\sdr-release-V2.0.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viswesh.mb\source\repos\Sprint 29\data-model\sdr-release-v2.0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A326BE57-F8AF-4B64-B657-FFA54BAC365A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB848350-B750-4A1C-9366-06AC5490E4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{A3ACD5DA-FA69-451A-83B4-E2EA342D7D58}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{A3ACD5DA-FA69-451A-83B4-E2EA342D7D58}"/>
   </bookViews>
   <sheets>
     <sheet name="DataDictionary" sheetId="1" state="hidden" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4046" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="493">
   <si>
     <t>TABLE_CATALOG</t>
   </si>
@@ -1524,6 +1524,15 @@
   </si>
   <si>
     <t>bcPropertyConceptCode</t>
+  </si>
+  <si>
+    <t>addressId</t>
+  </si>
+  <si>
+    <t>Cross-Reference to biomedicalConceptCategory</t>
+  </si>
+  <si>
+    <t>Minimum value : 0. Cannot be negative integers</t>
   </si>
 </sst>
 </file>
@@ -1757,13 +1766,13 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1775,6 +1784,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1784,16 +1796,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1804,6 +1810,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13706,8 +13715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99043BE-1430-4060-BF1C-96B02CFC8CED}">
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114:D123"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13721,10 +13730,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="8" t="s">
         <v>200</v>
       </c>
@@ -13868,7 +13877,7 @@
       <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="32" t="s">
         <v>218</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -13883,7 +13892,7 @@
       <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="21" t="s">
         <v>220</v>
       </c>
@@ -13896,7 +13905,7 @@
       <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="21" t="s">
         <v>221</v>
       </c>
@@ -13909,7 +13918,7 @@
       <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="21" t="s">
         <v>222</v>
       </c>
@@ -13922,7 +13931,7 @@
       <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="21" t="s">
         <v>223</v>
       </c>
@@ -13935,7 +13944,7 @@
       <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="21" t="s">
         <v>224</v>
       </c>
@@ -14948,7 +14957,9 @@
       <c r="D92" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E92" s="21"/>
+      <c r="E92" s="21" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="29"/>
@@ -14990,7 +15001,7 @@
       <c r="E95" s="21"/>
     </row>
     <row r="96" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="27" t="s">
         <v>329</v>
       </c>
       <c r="B96" s="21" t="s">
@@ -15005,7 +15016,7 @@
       <c r="E96" s="21"/>
     </row>
     <row r="97" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="26"/>
+      <c r="A97" s="25"/>
       <c r="B97" s="21" t="s">
         <v>331</v>
       </c>
@@ -15018,7 +15029,7 @@
       <c r="E97" s="21"/>
     </row>
     <row r="98" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="26"/>
+      <c r="A98" s="25"/>
       <c r="B98" s="21" t="s">
         <v>332</v>
       </c>
@@ -15031,7 +15042,7 @@
       <c r="E98" s="21"/>
     </row>
     <row r="99" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="26"/>
+      <c r="A99" s="25"/>
       <c r="B99" s="21" t="s">
         <v>333</v>
       </c>
@@ -15044,7 +15055,7 @@
       <c r="E99" s="21"/>
     </row>
     <row r="100" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="26"/>
+      <c r="A100" s="25"/>
       <c r="B100" s="21" t="s">
         <v>334</v>
       </c>
@@ -15059,7 +15070,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="26"/>
+      <c r="A101" s="25"/>
       <c r="B101" s="21" t="s">
         <v>336</v>
       </c>
@@ -15072,7 +15083,7 @@
       <c r="E101" s="21"/>
     </row>
     <row r="102" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="26"/>
+      <c r="A102" s="25"/>
       <c r="B102" s="21" t="s">
         <v>461</v>
       </c>
@@ -15085,7 +15096,7 @@
       <c r="E102" s="21"/>
     </row>
     <row r="103" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="27"/>
+      <c r="A103" s="26"/>
       <c r="B103" s="21" t="s">
         <v>462</v>
       </c>
@@ -15098,7 +15109,7 @@
       <c r="E103" s="21"/>
     </row>
     <row r="104" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="26" t="s">
+      <c r="A104" s="25" t="s">
         <v>339</v>
       </c>
       <c r="B104" s="21" t="s">
@@ -15110,12 +15121,9 @@
       <c r="D104" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E104" s="21" t="s">
-        <v>345</v>
-      </c>
     </row>
     <row r="105" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="26"/>
+      <c r="A105" s="25"/>
       <c r="B105" s="21" t="s">
         <v>341</v>
       </c>
@@ -15130,7 +15138,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="26"/>
+      <c r="A106" s="25"/>
       <c r="B106" s="21" t="s">
         <v>343</v>
       </c>
@@ -15143,16 +15151,22 @@
       <c r="E106" s="21"/>
     </row>
     <row r="107" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="26"/>
+      <c r="A107" s="25"/>
       <c r="B107" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C107" s="21"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="21"/>
+      <c r="C107" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E107" s="21" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="108" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="26"/>
+      <c r="A108" s="25"/>
       <c r="B108" s="21" t="s">
         <v>464</v>
       </c>
@@ -15167,7 +15181,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="26"/>
+      <c r="A109" s="25"/>
       <c r="B109" s="21" t="s">
         <v>465</v>
       </c>
@@ -15182,7 +15196,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="26"/>
+      <c r="A110" s="25"/>
       <c r="B110" s="21" t="s">
         <v>346</v>
       </c>
@@ -15195,7 +15209,7 @@
       <c r="E110" s="21"/>
     </row>
     <row r="111" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="26"/>
+      <c r="A111" s="25"/>
       <c r="B111" s="21" t="s">
         <v>348</v>
       </c>
@@ -15210,7 +15224,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="26"/>
+      <c r="A112" s="25"/>
       <c r="B112" s="21" t="s">
         <v>466</v>
       </c>
@@ -15225,7 +15239,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="27"/>
+      <c r="A113" s="26"/>
       <c r="B113" s="21" t="s">
         <v>350</v>
       </c>
@@ -15240,7 +15254,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="25" t="s">
+      <c r="A114" s="27" t="s">
         <v>353</v>
       </c>
       <c r="B114" s="21" t="s">
@@ -15255,7 +15269,7 @@
       <c r="E114" s="21"/>
     </row>
     <row r="115" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="26"/>
+      <c r="A115" s="25"/>
       <c r="B115" s="21" t="s">
         <v>355</v>
       </c>
@@ -15268,7 +15282,7 @@
       <c r="E115" s="21"/>
     </row>
     <row r="116" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="26"/>
+      <c r="A116" s="25"/>
       <c r="B116" s="21" t="s">
         <v>356</v>
       </c>
@@ -15281,7 +15295,7 @@
       <c r="E116" s="21"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="26"/>
+      <c r="A117" s="25"/>
       <c r="B117" s="21" t="s">
         <v>467</v>
       </c>
@@ -15294,7 +15308,7 @@
       <c r="E117" s="21"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="26"/>
+      <c r="A118" s="25"/>
       <c r="B118" s="21" t="s">
         <v>360</v>
       </c>
@@ -15307,7 +15321,7 @@
       <c r="E118" s="21"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="26"/>
+      <c r="A119" s="25"/>
       <c r="B119" s="21" t="s">
         <v>359</v>
       </c>
@@ -15320,7 +15334,7 @@
       <c r="E119" s="21"/>
     </row>
     <row r="120" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="26"/>
+      <c r="A120" s="25"/>
       <c r="B120" s="21" t="s">
         <v>468</v>
       </c>
@@ -15333,7 +15347,7 @@
       <c r="E120" s="21"/>
     </row>
     <row r="121" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="26"/>
+      <c r="A121" s="25"/>
       <c r="B121" s="21" t="s">
         <v>469</v>
       </c>
@@ -15346,7 +15360,7 @@
       <c r="E121" s="21"/>
     </row>
     <row r="122" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="26"/>
+      <c r="A122" s="25"/>
       <c r="B122" s="21" t="s">
         <v>357</v>
       </c>
@@ -15361,7 +15375,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="27"/>
+      <c r="A123" s="26"/>
       <c r="B123" s="21" t="s">
         <v>358</v>
       </c>
@@ -15557,7 +15571,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="31" t="s">
+      <c r="A137" s="32" t="s">
         <v>378</v>
       </c>
       <c r="B137" s="21" t="s">
@@ -15572,7 +15586,7 @@
       <c r="E137" s="21"/>
     </row>
     <row r="138" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="32"/>
+      <c r="A138" s="33"/>
       <c r="B138" s="21" t="s">
         <v>380</v>
       </c>
@@ -15585,7 +15599,7 @@
       <c r="E138" s="21"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="32"/>
+      <c r="A139" s="33"/>
       <c r="B139" s="21" t="s">
         <v>470</v>
       </c>
@@ -15598,7 +15612,7 @@
       <c r="E139" s="21"/>
     </row>
     <row r="140" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="32"/>
+      <c r="A140" s="33"/>
       <c r="B140" s="21" t="s">
         <v>471</v>
       </c>
@@ -15611,7 +15625,7 @@
       <c r="E140" s="21"/>
     </row>
     <row r="141" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="32"/>
+      <c r="A141" s="33"/>
       <c r="B141" s="21" t="s">
         <v>381</v>
       </c>
@@ -15624,7 +15638,7 @@
       <c r="E141" s="21"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="32"/>
+      <c r="A142" s="33"/>
       <c r="B142" s="21" t="s">
         <v>382</v>
       </c>
@@ -15637,7 +15651,7 @@
       <c r="E142" s="21"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="33"/>
+      <c r="A143" s="34"/>
       <c r="B143" s="21" t="s">
         <v>383</v>
       </c>
@@ -15650,7 +15664,7 @@
       <c r="E143" s="21"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="31" t="s">
+      <c r="A144" s="32" t="s">
         <v>384</v>
       </c>
       <c r="B144" s="21" t="s">
@@ -15665,7 +15679,7 @@
       <c r="E144" s="21"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="32"/>
+      <c r="A145" s="33"/>
       <c r="B145" s="21" t="s">
         <v>386</v>
       </c>
@@ -15678,7 +15692,7 @@
       <c r="E145" s="21"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="32"/>
+      <c r="A146" s="33"/>
       <c r="B146" s="21" t="s">
         <v>387</v>
       </c>
@@ -15691,7 +15705,7 @@
       <c r="E146" s="21"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="32"/>
+      <c r="A147" s="33"/>
       <c r="B147" s="21" t="s">
         <v>388</v>
       </c>
@@ -15706,7 +15720,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="32"/>
+      <c r="A148" s="33"/>
       <c r="B148" s="21" t="s">
         <v>389</v>
       </c>
@@ -15721,7 +15735,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="33"/>
+      <c r="A149" s="34"/>
       <c r="B149" s="21" t="s">
         <v>390</v>
       </c>
@@ -15816,7 +15830,7 @@
       <c r="E155" s="21"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="25" t="s">
+      <c r="A156" s="27" t="s">
         <v>398</v>
       </c>
       <c r="B156" s="21" t="s">
@@ -15831,7 +15845,7 @@
       <c r="E156" s="21"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="26"/>
+      <c r="A157" s="25"/>
       <c r="B157" s="21" t="s">
         <v>400</v>
       </c>
@@ -15844,7 +15858,7 @@
       <c r="E157" s="21"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="26"/>
+      <c r="A158" s="25"/>
       <c r="B158" s="21" t="s">
         <v>401</v>
       </c>
@@ -15857,7 +15871,7 @@
       <c r="E158" s="21"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="26"/>
+      <c r="A159" s="25"/>
       <c r="B159" s="21" t="s">
         <v>402</v>
       </c>
@@ -15870,7 +15884,7 @@
       <c r="E159" s="21"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="26"/>
+      <c r="A160" s="25"/>
       <c r="B160" s="21" t="s">
         <v>403</v>
       </c>
@@ -15883,7 +15897,7 @@
       <c r="E160" s="21"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="27"/>
+      <c r="A161" s="26"/>
       <c r="B161" s="21" t="s">
         <v>405</v>
       </c>
@@ -15896,7 +15910,7 @@
       <c r="E161" s="21"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="25" t="s">
+      <c r="A162" s="27" t="s">
         <v>481</v>
       </c>
       <c r="B162" s="21" t="s">
@@ -15911,7 +15925,7 @@
       <c r="E162" s="21"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="26"/>
+      <c r="A163" s="25"/>
       <c r="B163" s="21" t="s">
         <v>483</v>
       </c>
@@ -15924,7 +15938,7 @@
       <c r="E163" s="21"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="26"/>
+      <c r="A164" s="25"/>
       <c r="B164" s="21" t="s">
         <v>484</v>
       </c>
@@ -15937,7 +15951,7 @@
       <c r="E164" s="21"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="26"/>
+      <c r="A165" s="25"/>
       <c r="B165" s="21" t="s">
         <v>485</v>
       </c>
@@ -15950,7 +15964,7 @@
       <c r="E165" s="21"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="26"/>
+      <c r="A166" s="25"/>
       <c r="B166" s="21" t="s">
         <v>486</v>
       </c>
@@ -15963,7 +15977,7 @@
       <c r="E166" s="21"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="26"/>
+      <c r="A167" s="25"/>
       <c r="B167" s="21" t="s">
         <v>487</v>
       </c>
@@ -15976,7 +15990,7 @@
       <c r="E167" s="21"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="26"/>
+      <c r="A168" s="25"/>
       <c r="B168" s="21" t="s">
         <v>489</v>
       </c>
@@ -15989,7 +16003,7 @@
       <c r="E168" s="21"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="25" t="s">
+      <c r="A169" s="27" t="s">
         <v>406</v>
       </c>
       <c r="B169" s="21" t="s">
@@ -16004,7 +16018,7 @@
       <c r="E169" s="21"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="26"/>
+      <c r="A170" s="25"/>
       <c r="B170" s="21" t="s">
         <v>480</v>
       </c>
@@ -16014,10 +16028,12 @@
       <c r="D170" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E170" s="21"/>
+      <c r="E170" s="21" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="26"/>
+      <c r="A171" s="25"/>
       <c r="B171" s="21" t="s">
         <v>408</v>
       </c>
@@ -16030,7 +16046,7 @@
       <c r="E171" s="21"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="26"/>
+      <c r="A172" s="25"/>
       <c r="B172" s="21" t="s">
         <v>409</v>
       </c>
@@ -16043,7 +16059,7 @@
       <c r="E172" s="21"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="26"/>
+      <c r="A173" s="25"/>
       <c r="B173" s="21" t="s">
         <v>410</v>
       </c>
@@ -16058,7 +16074,7 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="27"/>
+      <c r="A174" s="26"/>
       <c r="B174" s="21" t="s">
         <v>472</v>
       </c>
@@ -16071,7 +16087,7 @@
       <c r="E174" s="21"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="25" t="s">
+      <c r="A175" s="27" t="s">
         <v>411</v>
       </c>
       <c r="B175" s="21" t="s">
@@ -16086,7 +16102,7 @@
       <c r="E175" s="21"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="26"/>
+      <c r="A176" s="25"/>
       <c r="B176" s="21" t="s">
         <v>413</v>
       </c>
@@ -16099,7 +16115,7 @@
       <c r="E176" s="21"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="26"/>
+      <c r="A177" s="25"/>
       <c r="B177" s="21" t="s">
         <v>414</v>
       </c>
@@ -16112,7 +16128,7 @@
       <c r="E177" s="21"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="27"/>
+      <c r="A178" s="26"/>
       <c r="B178" s="21" t="s">
         <v>415</v>
       </c>
@@ -16125,7 +16141,7 @@
       <c r="E178" s="21"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="25" t="s">
+      <c r="A179" s="27" t="s">
         <v>416</v>
       </c>
       <c r="B179" s="21" t="s">
@@ -16140,7 +16156,7 @@
       <c r="E179" s="21"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="26"/>
+      <c r="A180" s="25"/>
       <c r="B180" s="21" t="s">
         <v>418</v>
       </c>
@@ -16153,7 +16169,7 @@
       <c r="E180" s="21"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="27"/>
+      <c r="A181" s="26"/>
       <c r="B181" s="21" t="s">
         <v>85</v>
       </c>
@@ -16167,23 +16183,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A104:A113"/>
-    <mergeCell ref="A162:A168"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="A96:A103"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A31:A54"/>
     <mergeCell ref="A175:A178"/>
     <mergeCell ref="A179:A181"/>
     <mergeCell ref="A114:A123"/>
@@ -16194,6 +16193,23 @@
     <mergeCell ref="A152:A155"/>
     <mergeCell ref="A156:A161"/>
     <mergeCell ref="A169:A174"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A31:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="A104:A113"/>
+    <mergeCell ref="A162:A168"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="A96:A103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16202,10 +16218,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E005F31D-5F18-4D53-AC21-42F2015A5297}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16218,10 +16234,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="2" t="s">
         <v>200</v>
       </c>
@@ -16233,7 +16249,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -16248,7 +16264,7 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="5" t="s">
         <v>85</v>
       </c>
@@ -16261,7 +16277,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="5" t="s">
         <v>422</v>
       </c>
@@ -16274,7 +16290,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="5" t="s">
         <v>423</v>
       </c>
@@ -16287,7 +16303,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="5" t="s">
         <v>88</v>
       </c>
@@ -16300,7 +16316,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>294</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -16315,7 +16331,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="5" t="s">
         <v>425</v>
       </c>
@@ -16328,7 +16344,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>426</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -16343,7 +16359,7 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="5" t="s">
         <v>428</v>
       </c>
@@ -16356,7 +16372,7 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="5" t="s">
         <v>429</v>
       </c>
@@ -16369,7 +16385,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="1" t="s">
         <v>430</v>
       </c>
@@ -16382,7 +16398,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="1" t="s">
         <v>431</v>
       </c>
@@ -16395,7 +16411,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="1" t="s">
         <v>432</v>
       </c>
@@ -16408,7 +16424,7 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="5" t="s">
         <v>433</v>
       </c>
@@ -16421,7 +16437,7 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="10" t="s">
         <v>434</v>
       </c>
@@ -16434,7 +16450,7 @@
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="1" t="s">
         <v>293</v>
       </c>
@@ -16447,7 +16463,7 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="12" t="s">
         <v>295</v>
       </c>
@@ -16460,7 +16476,7 @@
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="12" t="s">
         <v>435</v>
       </c>
@@ -16516,24 +16532,24 @@
       <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>35</v>
+      <c r="B23" s="14" t="s">
+        <v>490</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="14" t="s">
         <v>207</v>
       </c>
       <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="9" t="s">
-        <v>441</v>
+        <v>35</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>206</v>
@@ -16544,9 +16560,9 @@
       <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>206</v>
@@ -16556,10 +16572,10 @@
       </c>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
+    <row r="26" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
       <c r="B26" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>206</v>
@@ -16570,9 +16586,9 @@
       <c r="E26" s="16"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>206</v>
@@ -16583,9 +16599,9 @@
       <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>206</v>
@@ -16596,29 +16612,42 @@
       <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="40"/>
+      <c r="B30" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30" s="9"/>
+    </row>
     <row r="31" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A23:A29"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A19"/>
     <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C14" location="Common!A2" display="List&lt;code&gt;" xr:uid="{4E900B98-912F-4693-9769-85800829BB1C}"/>
@@ -16634,6 +16663,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9ff55c19-750b-4d57-96fc-c7d80b080a4b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F70ACD1D198BA4A93FC70EBD4D0E4F5" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18b475abf70eecdc601daa3e136f5dd8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ff55c19-750b-4d57-96fc-c7d80b080a4b" xmlns:ns3="a951cd76-9ac8-4a77-9c78-24aa33457680" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74bfc7bfa49a56144affddbcba5bb63a" ns2:_="" ns3:_="">
     <xsd:import namespace="9ff55c19-750b-4d57-96fc-c7d80b080a4b"/>
@@ -16852,26 +16900,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9ff55c19-750b-4d57-96fc-c7d80b080a4b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7BF6920-7D60-46C8-8FE9-AA64B4468D49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF55BEAE-E784-4B1F-B505-3E3A62064FF1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9ff55c19-750b-4d57-96fc-c7d80b080a4b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E78D44-13C1-49E4-985C-936A483EFDF6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16888,22 +16935,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF55BEAE-E784-4B1F-B505-3E3A62064FF1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9ff55c19-750b-4d57-96fc-c7d80b080a4b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7BF6920-7D60-46C8-8FE9-AA64B4468D49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>